--- a/Assets/04YJE/02Scripts/ShopItemDB/ShopItemDB.xlsx
+++ b/Assets/04YJE/02Scripts/ShopItemDB/ShopItemDB.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>itemID</t>
   </si>
@@ -20,6 +20,9 @@
   </si>
   <si>
     <t>itemInfo</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>attackDamage</t>
@@ -391,19 +394,22 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1000.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0</v>
+        <v>500.0</v>
       </c>
       <c r="E2" s="1">
         <v>0.0</v>
@@ -412,12 +418,15 @@
         <v>0.0</v>
       </c>
       <c r="G2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="1">
         <v>10.0</v>
       </c>
-      <c r="H2" s="1">
-        <v>0.0</v>
-      </c>
       <c r="I2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -426,27 +435,30 @@
         <v>1001.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0</v>
+        <v>700.0</v>
       </c>
       <c r="E3" s="1">
         <v>0.0</v>
       </c>
       <c r="F3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="1">
         <v>500.0</v>
       </c>
-      <c r="G3" s="1">
-        <v>0.0</v>
-      </c>
       <c r="H3" s="1">
         <v>0.0</v>
       </c>
       <c r="I3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -455,13 +467,13 @@
         <v>1002.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="E4" s="1">
         <v>0.0</v>
@@ -470,12 +482,15 @@
         <v>0.0</v>
       </c>
       <c r="G4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="1">
         <v>100.0</v>
       </c>
-      <c r="H4" s="1">
-        <v>0.0</v>
-      </c>
       <c r="I4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -484,13 +499,13 @@
         <v>1100.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0</v>
+        <v>550.0</v>
       </c>
       <c r="E5" s="1">
         <v>0.0</v>
@@ -499,12 +514,15 @@
         <v>0.0</v>
       </c>
       <c r="G5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="1">
         <v>10.0</v>
       </c>
-      <c r="H5" s="1">
-        <v>0.0</v>
-      </c>
       <c r="I5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -513,27 +531,30 @@
         <v>1101.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E6" s="1">
         <v>0.0</v>
       </c>
       <c r="F6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="1">
         <v>1000.0</v>
       </c>
-      <c r="G6" s="1">
-        <v>0.0</v>
-      </c>
       <c r="H6" s="1">
         <v>0.0</v>
       </c>
       <c r="I6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -542,17 +563,17 @@
         <v>1200.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1">
+        <v>3000.0</v>
+      </c>
+      <c r="E7" s="1">
         <v>200.0</v>
       </c>
-      <c r="E7" s="1">
-        <v>0.0</v>
-      </c>
       <c r="F7" s="1">
         <v>0.0</v>
       </c>
@@ -563,6 +584,9 @@
         <v>0.0</v>
       </c>
       <c r="I7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -571,20 +595,20 @@
         <v>1201.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="1">
         <v>20.0</v>
       </c>
-      <c r="F8" s="1">
-        <v>0.0</v>
-      </c>
       <c r="G8" s="1">
         <v>0.0</v>
       </c>
@@ -592,6 +616,9 @@
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -600,13 +627,13 @@
         <v>1202.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0</v>
+        <v>5000.0</v>
       </c>
       <c r="E9" s="1">
         <v>0.0</v>
@@ -621,6 +648,9 @@
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="1">
         <v>3.0</v>
       </c>
     </row>
@@ -629,13 +659,13 @@
         <v>1203.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0</v>
+        <v>10000.0</v>
       </c>
       <c r="E10" s="1">
         <v>0.0</v>
@@ -647,9 +677,12 @@
         <v>0.0</v>
       </c>
       <c r="H10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="1">
         <v>10.0</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>0.0</v>
       </c>
     </row>
